--- a/experimental_results/result_and_config.xlsx
+++ b/experimental_results/result_and_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgk1910/gitlab-repos/aalto-snlp-project-spring-2024/experimental_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F00FCFE-E2E1-894B-B030-2203AB5EC05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388DE6F8-3129-8940-AABD-58EC20707FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38820" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{9FD0D5BD-9A60-5441-8052-A379A61289E8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Model</t>
   </si>
@@ -90,16 +90,58 @@
     <t>XLM with Focal Loss</t>
   </si>
   <si>
-    <t>Encoder-only Transformer</t>
-  </si>
-  <si>
-    <t>d_model=200,
+    <t>0.92309</t>
+  </si>
+  <si>
+    <t>0.92619</t>
+  </si>
+  <si>
+    <t>0.92460</t>
+  </si>
+  <si>
+    <t>0.92601</t>
+  </si>
+  <si>
+    <t>0.92716</t>
+  </si>
+  <si>
+    <t>0.92658</t>
+  </si>
+  <si>
+    <t>Encoder-only Transformer with GloVe 100d</t>
+  </si>
+  <si>
+    <t>Encoder-only Transformer with GloVe 200d</t>
+  </si>
+  <si>
+    <t>d_model=100,
 max_seq_length=1000,
 nhead=4,
 num_layers=2,
 dim_feedforward=400,
 dropout=0.3,
 glove_embeddings=None,</t>
+  </si>
+  <si>
+    <t>d_model=200</t>
+  </si>
+  <si>
+    <t>hidden_size = 128,  embed_size = 100, num_layers=1</t>
+  </si>
+  <si>
+    <t>0.92994</t>
+  </si>
+  <si>
+    <t>0.93332</t>
+  </si>
+  <si>
+    <t>0.93158</t>
+  </si>
+  <si>
+    <t>hidden_size = 256
+embed_size = 100,
+num_filters=100, 
+kernel_sizes= [3, 4, 5]</t>
   </si>
 </sst>
 </file>
@@ -474,19 +516,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F43323E-8BBA-FD4E-9B8C-DE2D784B0246}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -499,13 +541,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
@@ -518,8 +569,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
@@ -532,28 +583,51 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -564,16 +638,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43723FBC-157D-1E4A-B900-50DAD60BC675}">
-  <dimension ref="B3:C11"/>
+  <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C11:C15"/>
+      <selection activeCell="C19" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
@@ -585,42 +659,59 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="68" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="2:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>17</v>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/experimental_results/result_and_config.xlsx
+++ b/experimental_results/result_and_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgk1910/gitlab-repos/aalto-snlp-project-spring-2024/experimental_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388DE6F8-3129-8940-AABD-58EC20707FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98D4712-4C75-5C40-A3D0-F3B7377322A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38820" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{9FD0D5BD-9A60-5441-8052-A379A61289E8}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/experimental_results/result_and_config.xlsx
+++ b/experimental_results/result_and_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgk1910/gitlab-repos/aalto-snlp-project-spring-2024/experimental_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98D4712-4C75-5C40-A3D0-F3B7377322A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229B58FF-EEF5-D947-8E57-5D5836232DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38820" yWindow="3100" windowWidth="28040" windowHeight="17440" xr2:uid="{9FD0D5BD-9A60-5441-8052-A379A61289E8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -143,17 +143,38 @@
 num_filters=100, 
 kernel_sizes= [3, 4, 5]</t>
   </si>
+  <si>
+    <t>0.92727</t>
+  </si>
+  <si>
+    <t>0.93538</t>
+  </si>
+  <si>
+    <t>0.93100</t>
+  </si>
+  <si>
+    <t>LSTM_CNN with GloVe</t>
+  </si>
+  <si>
+    <t>Bidirectional LSTM_CNN with GloVe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -177,9 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -516,18 +541,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F43323E-8BBA-FD4E-9B8C-DE2D784B0246}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -555,7 +580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -569,9 +594,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -583,51 +608,66 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
